--- a/doc/examples/resource/resource-efficiency.xlsx
+++ b/doc/examples/resource/resource-efficiency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\enterprise\doc\user-guide\examples\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\johan\workspace\frepple-community\doc\examples\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5BFC5-4944-49EC-BBBF-6759C73B08CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39D5CB-BE7B-4C98-BA6E-9FA5CFFB9733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="-15720" windowWidth="27885" windowHeight="12225" tabRatio="821" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'operation resource'!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">parameter!$A:$C</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">resource!$A:$E</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$H</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sales order'!$A:$I</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">supplier!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -213,15 +213,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -288,12 +279,6 @@
     <t>Specifies a minimum delivery date increment (in seconds) used by the planning algorithm in its search. Default: 0</t>
   </si>
   <si>
-    <t>plan.planSafetyStockFirst</t>
-  </si>
-  <si>
-    <t>Controls whether safety stock is planned before or after the demand. Accepted values are false (default) and true</t>
-  </si>
-  <si>
     <t>plan.rotateResources</t>
   </si>
   <si>
@@ -313,6 +298,9 @@
   </si>
   <si>
     <t>Determines whether confirmed manufacturing orders consume material or not. Default is true.</t>
+  </si>
+  <si>
+    <t>Minshipment</t>
   </si>
 </sst>
 </file>
@@ -322,7 +310,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
@@ -683,7 +671,7 @@
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,10 +694,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -732,10 +723,13 @@
         <v>250</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>250</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -758,11 +752,14 @@
         <v>250</v>
       </c>
       <c r="H3">
+        <v>250</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1048575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1048575" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -775,14 +772,14 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -793,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -804,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -823,20 +820,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="136.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -858,7 +855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -869,7 +866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -880,7 +877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -891,7 +888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -902,93 +899,71 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>83</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:C1048574" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1001,12 +976,12 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,12 +998,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1062,7 +1037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1127,9 +1102,9 @@
       <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1137,12 +1112,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1164,14 +1139,14 @@
       <selection activeCell="B1" sqref="B1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1190,12 +1165,12 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1223,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1271,27 +1246,27 @@
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1310,9 +1285,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1355,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1378,7 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
@@ -1418,7 +1393,7 @@
     <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +1463,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1537,7 +1512,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -1546,7 +1521,7 @@
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1591,7 +1566,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1619,7 +1594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1633,7 +1608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1661,7 +1636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
